--- a/pagination.xlsx
+++ b/pagination.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blauerbock/workspaces/complete-guide-to-elasticsearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932519D2-1562-5D46-9F9A-01B49BD57A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142867EE-B574-4441-A36A-1AB210DC9437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="600" windowWidth="25440" windowHeight="15800" activeTab="1" xr2:uid="{E388F87C-703C-8046-934B-F57ED19AB7B5}"/>
+    <workbookView xWindow="400" yWindow="600" windowWidth="25440" windowHeight="15800" activeTab="2" xr2:uid="{E388F87C-703C-8046-934B-F57ED19AB7B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="pagination" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Total hits</t>
   </si>
@@ -57,6 +80,24 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>shard_num</t>
+  </si>
+  <si>
+    <t>_routing - object ID</t>
+  </si>
+  <si>
+    <t>hash</t>
+  </si>
+  <si>
+    <t>num_primary_shards</t>
+  </si>
+  <si>
+    <t>party1</t>
+  </si>
+  <si>
+    <t>party2</t>
   </si>
 </sst>
 </file>
@@ -529,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A9284C-AA23-4F40-B79F-DC1B306FD80C}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -657,4 +698,179 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8296B8B-3DE6-D14A-BDD3-E0C58FEACAB5}">
+  <dimension ref="A3:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f ca="1">MOD(B4,E4)</f>
+        <v>1</v>
+      </c>
+      <c r="B4" cm="1">
+        <f t="array" aca="1" ref="B4" ca="1">MOD(SUMPRODUCT(CODE(MID(C4,ROW(INDIRECT("1:"&amp;LEN(C4))),1))),1000)</f>
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" ref="A5:A9" ca="1" si="0">MOD(B5,E5)</f>
+        <v>0</v>
+      </c>
+      <c r="B5" cm="1">
+        <f t="array" aca="1" ref="B5" ca="1">MOD(SUMPRODUCT(CODE(MID(C5,ROW(INDIRECT("1:"&amp;LEN(C5))),1))),1000)</f>
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B6" cm="1">
+        <f t="array" aca="1" ref="B6" ca="1">MOD(SUMPRODUCT(CODE(MID(C6,ROW(INDIRECT("1:"&amp;LEN(C6))),1))),1000)</f>
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B7" cm="1">
+        <f t="array" aca="1" ref="B7" ca="1">MOD(SUMPRODUCT(CODE(MID(C7,ROW(INDIRECT("1:"&amp;LEN(C7))),1))),1000)</f>
+        <v>52</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B8" cm="1">
+        <f t="array" aca="1" ref="B8" ca="1">MOD(SUMPRODUCT(CODE(MID(C8,ROW(INDIRECT("1:"&amp;LEN(C8))),1))),1000)</f>
+        <v>163</v>
+      </c>
+      <c r="C8">
+        <v>199</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B9" cm="1">
+        <f t="array" aca="1" ref="B9" ca="1">MOD(SUMPRODUCT(CODE(MID(C9,ROW(INDIRECT("1:"&amp;LEN(C9))),1))),1000)</f>
+        <v>609</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <f>E8</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" ref="A10:A11" ca="1" si="1">MOD(B10,E10)</f>
+        <v>0</v>
+      </c>
+      <c r="B10" cm="1">
+        <f t="array" aca="1" ref="B10" ca="1">MOD(SUMPRODUCT(CODE(MID(C10,ROW(INDIRECT("1:"&amp;LEN(C10))),1))),1000)</f>
+        <v>610</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:E14" si="2">E9</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B11" t="e" cm="1">
+        <f t="array" aca="1" ref="B11" ca="1">MOD(SUMPRODUCT(CODE(MID(C11,ROW(INDIRECT("1:"&amp;LEN(C11))),1))),1000)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>